--- a/Doc/问题记录表.xlsx
+++ b/Doc/问题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12660"/>
+    <workbookView windowWidth="20790" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>问题描述</t>
   </si>
   <si>
-    <t>图片</t>
+    <t>完成状态</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>解决方案</t>
   </si>
   <si>
     <t>FES踏车选项时，从FES退回踏车界面时，没有成功实现，而是退回到了主界面</t>
@@ -40,6 +46,12 @@
   </si>
   <si>
     <t>通道界面中，该界面显示时，肌肉有默认选中，该默认选中应该取消</t>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>使用选中的下一个作为默认值从而避免出现这种问题</t>
   </si>
   <si>
     <t>slider效果未实现</t>
@@ -73,14 +85,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,12 +238,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -553,48 +570,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -604,108 +624,117 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1056,247 +1085,287 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="79.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="29.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="43.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3">
+        <v>9.28</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3">
+        <v>9.28</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3">
+        <v>9.28</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3">
+        <v>9.28</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" ht="20" customHeight="1" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3">
+        <v>9.28</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="20" customHeight="1" spans="1:4">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5">
+        <v>9.28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:3">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3">
+        <v>9.28</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:3">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3">
+        <v>9.28</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:3">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3">
+        <v>9.28</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:3">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3">
+        <v>9.28</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3">
+        <v>9.28</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3">
+        <v>9.28</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3">
+        <v>9.28</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
     </row>
     <row r="18" ht="20" customHeight="1" spans="1:3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" ht="20" customHeight="1" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
     </row>
     <row r="22" ht="20" customHeight="1" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
     </row>
     <row r="23" ht="20" customHeight="1" spans="1:3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
     </row>
     <row r="24" ht="20" customHeight="1" spans="1:3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
     </row>
     <row r="25" ht="20" customHeight="1" spans="1:3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
     </row>
     <row r="26" ht="20" customHeight="1" spans="1:3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
     </row>
     <row r="27" ht="20" customHeight="1" spans="1:3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" ht="20" customHeight="1" spans="1:3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" ht="20" customHeight="1" spans="1:3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
     </row>
     <row r="30" ht="20" customHeight="1" spans="1:3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" ht="20" customHeight="1" spans="1:3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
     </row>
     <row r="32" ht="20" customHeight="1" spans="1:3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
     </row>
     <row r="33" ht="20" customHeight="1" spans="1:3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
     </row>
     <row r="34" ht="20" customHeight="1" spans="1:3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
     </row>
     <row r="35" ht="20" customHeight="1" spans="1:3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1314,7 +1383,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1331,7 +1400,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Doc/问题记录表.xlsx
+++ b/Doc/问题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20790" windowHeight="11790"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>问题描述</t>
   </si>
@@ -24,7 +24,10 @@
     <t>完成状态</t>
   </si>
   <si>
-    <t>时间</t>
+    <t>发现时间</t>
+  </si>
+  <si>
+    <t>解决时间</t>
   </si>
   <si>
     <t>解决方案</t>
@@ -33,6 +36,12 @@
     <t>FES踏车选项时，从FES退回踏车界面时，没有成功实现，而是退回到了主界面</t>
   </si>
   <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>添加了一个中间过渡标识用于表示是那种方式跳转的</t>
+  </si>
+  <si>
     <t>radiobutton的样式表未实现</t>
   </si>
   <si>
@@ -48,9 +57,6 @@
     <t>通道界面中，该界面显示时，肌肉有默认选中，该默认选中应该取消</t>
   </si>
   <si>
-    <t>已完成</t>
-  </si>
-  <si>
     <t>使用选中的下一个作为默认值从而避免出现这种问题</t>
   </si>
   <si>
@@ -63,10 +69,19 @@
     <t>输入框中点击时未弹出软键盘</t>
   </si>
   <si>
+    <t>原来在代码中添加了Qt软件插件，但是qt的软件盘并未出现，并且该代码块抑制系统自带的软键盘弹出，将该部分代码取消掉之后就正常弹出键盘了</t>
+  </si>
+  <si>
     <t>删除用户时出现闪退</t>
   </si>
   <si>
+    <t>原来的用户显示列表和后来的UI显示有冲突，代码是按照之前可以选择多用户同时删除的，现在该功能被取消掉，但是代码只改了显示部分，对于删除部分并未进行更改，故出现此问题</t>
+  </si>
+  <si>
     <t>Fes参数界面中刺激盒和下面的界面未对应。</t>
+  </si>
+  <si>
+    <t>初始化时将页面设置为刺激盒A</t>
   </si>
   <si>
     <t>设置界面中密码管理功能未实现</t>
@@ -715,12 +730,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -733,6 +751,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1085,287 +1106,321 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="79.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
-    <col min="4" max="4" width="43.875" customWidth="1"/>
+    <col min="3" max="4" width="10.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="43.8796296296296" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" ht="20" customHeight="1" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3">
+    </row>
+    <row r="2" ht="34" customHeight="1" spans="1:5">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4">
         <v>9.28</v>
       </c>
+      <c r="D2">
+        <v>9.29</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:3">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4">
         <v>9.28</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4">
+        <v>9.28</v>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1" spans="1:3">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4">
+        <v>9.28</v>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1" spans="1:3">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4">
+        <v>9.28</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="32" customHeight="1" spans="1:5">
+      <c r="A7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3">
+      <c r="C7" s="6">
         <v>9.28</v>
       </c>
-    </row>
-    <row r="5" ht="20" customHeight="1" spans="1:3">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3">
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1" spans="1:3">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4">
         <v>9.28</v>
       </c>
     </row>
-    <row r="6" ht="20" customHeight="1" spans="1:3">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3">
+    <row r="9" ht="20" customHeight="1" spans="1:3">
+      <c r="A9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4">
         <v>9.28</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="20" customHeight="1" spans="1:4">
-      <c r="A7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="5">
+    <row r="10" ht="64" customHeight="1" spans="1:5">
+      <c r="A10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4">
         <v>9.28</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" ht="20" customHeight="1" spans="1:3">
-      <c r="A8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3">
+      <c r="D10">
+        <v>9.29</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" ht="68" customHeight="1" spans="1:5">
+      <c r="A11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4">
         <v>9.28</v>
       </c>
-    </row>
-    <row r="9" ht="20" customHeight="1" spans="1:3">
-      <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="D11">
+        <v>9.29</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4">
         <v>9.28</v>
       </c>
-    </row>
-    <row r="10" ht="20" customHeight="1" spans="1:3">
-      <c r="A10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3">
+      <c r="D12">
         <v>9.28</v>
       </c>
-    </row>
-    <row r="11" ht="20" customHeight="1" spans="1:3">
-      <c r="A11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3">
+      <c r="E12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1" spans="1:3">
+      <c r="A13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4">
+        <v>9.29</v>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1" spans="1:3">
+      <c r="A14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4">
         <v>9.28</v>
       </c>
     </row>
-    <row r="12" ht="20" customHeight="1" spans="1:3">
-      <c r="A12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3">
-        <v>9.28</v>
-      </c>
-    </row>
-    <row r="13" ht="20" customHeight="1" spans="1:3">
-      <c r="A13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3">
-        <v>9.28</v>
-      </c>
-    </row>
-    <row r="14" ht="20" customHeight="1" spans="1:3">
-      <c r="A14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3">
-        <v>9.28</v>
-      </c>
-    </row>
-    <row r="15" ht="20" customHeight="1" spans="1:3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+    <row r="15" ht="20" customHeight="1" spans="1:2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" ht="20" customHeight="1" spans="1:3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" ht="20" customHeight="1" spans="1:3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" ht="20" customHeight="1" spans="1:3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" ht="20" customHeight="1" spans="1:3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" ht="20" customHeight="1" spans="1:3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" ht="20" customHeight="1" spans="1:3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" ht="20" customHeight="1" spans="1:3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" ht="20" customHeight="1" spans="1:3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" ht="20" customHeight="1" spans="1:3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" ht="20" customHeight="1" spans="1:3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
     </row>
     <row r="30" ht="20" customHeight="1" spans="1:3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" ht="20" customHeight="1" spans="1:3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
     </row>
     <row r="32" ht="20" customHeight="1" spans="1:3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
     </row>
     <row r="33" ht="20" customHeight="1" spans="1:3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
     </row>
     <row r="34" ht="20" customHeight="1" spans="1:3">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
     </row>
     <row r="35" ht="20" customHeight="1" spans="1:3">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1383,7 +1438,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1400,7 +1455,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Doc/问题记录表.xlsx
+++ b/Doc/问题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="28800" windowHeight="12660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>问题描述</t>
   </si>
@@ -45,6 +45,9 @@
     <t>radiobutton的样式表未实现</t>
   </si>
   <si>
+    <t>添加外部样式表</t>
+  </si>
+  <si>
     <t>combox的样式表未实现</t>
   </si>
   <si>
@@ -63,6 +66,9 @@
     <t>slider效果未实现</t>
   </si>
   <si>
+    <t>使用加载外部样式表的形式进行实现</t>
+  </si>
+  <si>
     <t>Fes参数界面中，点击完通道后，连接状态未实现</t>
   </si>
   <si>
@@ -88,17 +94,24 @@
   </si>
   <si>
     <t>tableWidget界面UI效果未实现</t>
+  </si>
+  <si>
+    <t>与下位机通信方式以及协议未确定</t>
+  </si>
+  <si>
+    <t>忘记密码弹窗未添加</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -730,7 +743,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -754,6 +767,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1108,8 +1127,8 @@
   <sheetPr/>
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1154,18 +1173,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="20" customHeight="1" spans="1:3">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="20" customHeight="1" spans="1:5">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="C3" s="4">
         <v>9.28</v>
       </c>
+      <c r="D3">
+        <v>9.29</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4">
@@ -1174,7 +1201,7 @@
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4">
@@ -1183,7 +1210,7 @@
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4">
@@ -1192,7 +1219,7 @@
     </row>
     <row r="7" s="1" customFormat="1" ht="32" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>6</v>
@@ -1201,21 +1228,29 @@
         <v>9.28</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" ht="20" customHeight="1" spans="1:3">
-      <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4"/>
+    </row>
+    <row r="8" ht="20" customHeight="1" spans="1:5">
+      <c r="A8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="C8" s="4">
         <v>9.28</v>
       </c>
+      <c r="D8">
+        <v>9.3</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:3">
       <c r="A9" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>6</v>
@@ -1226,7 +1261,7 @@
     </row>
     <row r="10" ht="64" customHeight="1" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>6</v>
@@ -1238,12 +1273,12 @@
         <v>9.29</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" ht="68" customHeight="1" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>6</v>
@@ -1255,12 +1290,12 @@
         <v>9.29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>6</v>
@@ -1272,12 +1307,12 @@
         <v>9.28</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:3">
       <c r="A13" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4">
@@ -1286,21 +1321,30 @@
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:3">
       <c r="A14" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4">
         <v>9.28</v>
       </c>
     </row>
-    <row r="15" ht="20" customHeight="1" spans="1:2">
-      <c r="A15" s="4"/>
+    <row r="15" ht="20" customHeight="1" spans="1:3">
+      <c r="A15" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="B15" s="4"/>
+      <c r="C15" s="8">
+        <v>9.3</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:3">
-      <c r="A16" s="4"/>
+      <c r="A16" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="C16" s="9">
+        <v>9.3</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:3">
       <c r="A17" s="4"/>
@@ -1328,7 +1372,7 @@
       <c r="C21" s="4"/>
     </row>
     <row r="22" ht="20" customHeight="1" spans="1:3">
-      <c r="A22" s="8"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
     </row>

--- a/Doc/问题记录表.xlsx
+++ b/Doc/问题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12660"/>
+    <workbookView windowWidth="28800" windowHeight="12060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>问题描述</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>忘记密码弹窗未添加</t>
+  </si>
+  <si>
+    <t>combobox文字不能居中显示</t>
+  </si>
+  <si>
+    <t>用户管理中编辑用户后保存失败</t>
   </si>
 </sst>
 </file>
@@ -266,18 +272,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -601,10 +601,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,16 +613,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -634,52 +634,52 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -688,16 +688,19 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -709,45 +712,42 @@
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -759,16 +759,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1128,7 +1137,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1166,10 +1175,10 @@
       <c r="C2" s="4">
         <v>9.28</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="6">
         <v>9.29</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1183,14 +1192,14 @@
       <c r="C3" s="4">
         <v>9.28</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="6">
         <v>9.29</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="20" customHeight="1" spans="1:3">
+    <row r="4" ht="20" customHeight="1" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -1198,8 +1207,10 @@
       <c r="C4" s="4">
         <v>9.28</v>
       </c>
-    </row>
-    <row r="5" ht="20" customHeight="1" spans="1:3">
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" ht="20" customHeight="1" spans="1:5">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1207,8 +1218,10 @@
       <c r="C5" s="4">
         <v>9.28</v>
       </c>
-    </row>
-    <row r="6" ht="20" customHeight="1" spans="1:3">
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" ht="20" customHeight="1" spans="1:5">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1216,18 +1229,21 @@
       <c r="C6" s="4">
         <v>9.28</v>
       </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="32" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="8">
         <v>9.28</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1241,14 +1257,14 @@
       <c r="C8" s="4">
         <v>9.28</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="6">
         <v>9.3</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" ht="20" customHeight="1" spans="1:3">
+    <row r="9" ht="20" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
@@ -1258,6 +1274,8 @@
       <c r="C9" s="4">
         <v>9.28</v>
       </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" ht="64" customHeight="1" spans="1:5">
       <c r="A10" s="5" t="s">
@@ -1269,10 +1287,10 @@
       <c r="C10" s="4">
         <v>9.28</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="6">
         <v>9.29</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1286,10 +1304,10 @@
       <c r="C11" s="4">
         <v>9.28</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="6">
         <v>9.29</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1303,14 +1321,14 @@
       <c r="C12" s="4">
         <v>9.28</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="6">
         <v>9.28</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" ht="20" customHeight="1" spans="1:3">
+    <row r="13" ht="20" customHeight="1" spans="1:5">
       <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
@@ -1318,8 +1336,10 @@
       <c r="C13" s="4">
         <v>9.29</v>
       </c>
-    </row>
-    <row r="14" ht="20" customHeight="1" spans="1:3">
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" ht="20" customHeight="1" spans="1:5">
       <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
@@ -1327,144 +1347,206 @@
       <c r="C14" s="4">
         <v>9.28</v>
       </c>
-    </row>
-    <row r="15" ht="20" customHeight="1" spans="1:3">
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" ht="20" customHeight="1" spans="1:5">
       <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="8">
+      <c r="C15" s="11">
         <v>9.3</v>
       </c>
-    </row>
-    <row r="16" ht="20" customHeight="1" spans="1:3">
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" ht="20" customHeight="1" spans="1:5">
       <c r="A16" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="9">
+      <c r="C16" s="12">
         <v>9.3</v>
       </c>
-    </row>
-    <row r="17" ht="20" customHeight="1" spans="1:3">
-      <c r="A17" s="4"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" ht="20" customHeight="1" spans="1:5">
+      <c r="A17" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" ht="20" customHeight="1" spans="1:3">
-      <c r="A18" s="4"/>
+      <c r="C17" s="12">
+        <v>9.3</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" ht="20" customHeight="1" spans="1:5">
+      <c r="A18" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" ht="20" customHeight="1" spans="1:3">
+      <c r="C18" s="12">
+        <v>9.3</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" ht="20" customHeight="1" spans="1:5">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-    </row>
-    <row r="20" ht="20" customHeight="1" spans="1:3">
+      <c r="D19" s="6"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" ht="20" customHeight="1" spans="1:5">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
-    </row>
-    <row r="21" ht="20" customHeight="1" spans="1:3">
+      <c r="D20" s="6"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" ht="20" customHeight="1" spans="1:5">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-    </row>
-    <row r="22" ht="20" customHeight="1" spans="1:3">
-      <c r="A22" s="10"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" ht="20" customHeight="1" spans="1:5">
+      <c r="A22" s="13"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-    </row>
-    <row r="23" ht="20" customHeight="1" spans="1:3">
+      <c r="D22" s="6"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" ht="20" customHeight="1" spans="1:5">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-    </row>
-    <row r="24" ht="20" customHeight="1" spans="1:3">
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" ht="20" customHeight="1" spans="1:5">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-    </row>
-    <row r="25" ht="20" customHeight="1" spans="1:3">
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" ht="20" customHeight="1" spans="1:5">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
-    </row>
-    <row r="26" ht="20" customHeight="1" spans="1:3">
+      <c r="D25" s="6"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" ht="20" customHeight="1" spans="1:5">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
-    </row>
-    <row r="27" ht="20" customHeight="1" spans="1:3">
+      <c r="D26" s="6"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" ht="20" customHeight="1" spans="1:5">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
-    </row>
-    <row r="28" ht="20" customHeight="1" spans="1:3">
+      <c r="D27" s="6"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" ht="20" customHeight="1" spans="1:5">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-    </row>
-    <row r="29" ht="20" customHeight="1" spans="1:3">
+      <c r="D28" s="6"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" ht="20" customHeight="1" spans="1:5">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
-    </row>
-    <row r="30" ht="20" customHeight="1" spans="1:3">
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" ht="20" customHeight="1" spans="1:5">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
-    </row>
-    <row r="31" ht="20" customHeight="1" spans="1:3">
+      <c r="D30" s="6"/>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" ht="20" customHeight="1" spans="1:5">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-    </row>
-    <row r="32" ht="20" customHeight="1" spans="1:3">
+      <c r="D31" s="6"/>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" ht="20" customHeight="1" spans="1:5">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
-    </row>
-    <row r="33" ht="20" customHeight="1" spans="1:3">
+      <c r="D32" s="6"/>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" ht="20" customHeight="1" spans="1:5">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
-    </row>
-    <row r="34" ht="20" customHeight="1" spans="1:3">
+      <c r="D33" s="6"/>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" ht="20" customHeight="1" spans="1:5">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
-    </row>
-    <row r="35" ht="20" customHeight="1" spans="1:3">
+      <c r="D34" s="6"/>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" ht="20" customHeight="1" spans="1:5">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" s="6"/>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" s="6"/>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" s="6"/>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" s="6"/>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" s="6"/>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/问题记录表.xlsx
+++ b/Doc/问题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12060"/>
+    <workbookView windowWidth="17448" windowHeight="9275"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>问题描述</t>
   </si>
@@ -57,6 +57,9 @@
     <t>信号显示图标未添加数据驱动</t>
   </si>
   <si>
+    <t>添加了WiFi的数据驱动</t>
+  </si>
+  <si>
     <t>通道界面中，该界面显示时，肌肉有默认选中，该默认选中应该取消</t>
   </si>
   <si>
@@ -102,10 +105,16 @@
     <t>忘记密码弹窗未添加</t>
   </si>
   <si>
+    <t>添加窗口</t>
+  </si>
+  <si>
     <t>combobox文字不能居中显示</t>
   </si>
   <si>
     <t>用户管理中编辑用户后保存失败</t>
+  </si>
+  <si>
+    <t>在保存函数中区分了新建用户和编辑用户的保存</t>
   </si>
 </sst>
 </file>
@@ -743,12 +752,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -759,10 +771,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -771,20 +783,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1136,417 +1142,436 @@
   <sheetPr/>
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="79.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="4" width="10.4444444444444" customWidth="1"/>
-    <col min="5" max="5" width="43.8796296296296" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.4444444444444" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="43.8796296296296" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="34" customHeight="1" spans="1:5">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="6">
         <v>9.28</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>9.29</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:5">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="6">
         <v>9.28</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>9.29</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:5">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6">
         <v>9.28</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6">
         <v>9.28</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:5">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4">
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6">
         <v>9.28</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7"/>
+      <c r="D6" s="5">
+        <v>9.3</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="32" customHeight="1" spans="1:5">
-      <c r="A7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="10">
         <v>9.28</v>
       </c>
       <c r="D7" s="9"/>
-      <c r="E7" s="10" t="s">
-        <v>14</v>
+      <c r="E7" s="11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:5">
-      <c r="A8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="6">
         <v>9.28</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>9.3</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>16</v>
+      <c r="E8" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:5">
-      <c r="A9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="6">
         <v>9.28</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" ht="64" customHeight="1" spans="1:5">
-      <c r="A10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="6">
         <v>9.28</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>9.29</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>19</v>
+      <c r="E10" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="68" customHeight="1" spans="1:5">
-      <c r="A11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="6">
         <v>9.28</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>9.29</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>21</v>
+      <c r="E11" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:5">
-      <c r="A12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="6">
         <v>9.28</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>9.28</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>23</v>
+      <c r="E12" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:5">
-      <c r="A13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4">
+      <c r="A13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6">
         <v>9.29</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:5">
-      <c r="A14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4">
+      <c r="A14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6">
         <v>9.28</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:5">
-      <c r="A15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="11">
+      <c r="A15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="12">
         <v>9.3</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:5">
-      <c r="A16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="4"/>
+      <c r="A16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C16" s="12">
         <v>9.3</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7"/>
+      <c r="D16" s="5">
+        <v>9.3</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:5">
-      <c r="A17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="4"/>
+      <c r="A17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="5"/>
       <c r="C17" s="12">
         <v>9.3</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="7"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" ht="20" customHeight="1" spans="1:5">
-      <c r="A18" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="4"/>
+      <c r="A18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C18" s="12">
         <v>9.3</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="7"/>
+      <c r="D18" s="5">
+        <v>10.4</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:5">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="7"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" ht="20" customHeight="1" spans="1:5">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="7"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:5">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="7"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" ht="20" customHeight="1" spans="1:5">
-      <c r="A22" s="13"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="7"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" ht="20" customHeight="1" spans="1:5">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="7"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="8"/>
     </row>
     <row r="24" ht="20" customHeight="1" spans="1:5">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="7"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="8"/>
     </row>
     <row r="25" ht="20" customHeight="1" spans="1:5">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="7"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="8"/>
     </row>
     <row r="26" ht="20" customHeight="1" spans="1:5">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="7"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="8"/>
     </row>
     <row r="27" ht="20" customHeight="1" spans="1:5">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="7"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="8"/>
     </row>
     <row r="28" ht="20" customHeight="1" spans="1:5">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="7"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="8"/>
     </row>
     <row r="29" ht="20" customHeight="1" spans="1:5">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="7"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="8"/>
     </row>
     <row r="30" ht="20" customHeight="1" spans="1:5">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="7"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="8"/>
     </row>
     <row r="31" ht="20" customHeight="1" spans="1:5">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="7"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="8"/>
     </row>
     <row r="32" ht="20" customHeight="1" spans="1:5">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="7"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="8"/>
     </row>
     <row r="33" ht="20" customHeight="1" spans="1:5">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="7"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="8"/>
     </row>
     <row r="34" ht="20" customHeight="1" spans="1:5">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="7"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="8"/>
     </row>
     <row r="35" ht="20" customHeight="1" spans="1:5">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="7"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="8"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="7"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="8"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="7"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="7"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="8"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="7"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="7"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/问题记录表.xlsx
+++ b/Doc/问题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17448" windowHeight="9275"/>
+    <workbookView windowWidth="22511" windowHeight="9275"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>问题描述</t>
   </si>
@@ -96,6 +96,9 @@
     <t>设置界面中密码管理功能未实现</t>
   </si>
   <si>
+    <t>根据逻辑优化该模块</t>
+  </si>
+  <si>
     <t>tableWidget界面UI效果未实现</t>
   </si>
   <si>
@@ -115,6 +118,9 @@
   </si>
   <si>
     <t>在保存函数中区分了新建用户和编辑用户的保存</t>
+  </si>
+  <si>
+    <t>未添加用户训练参数保存数据表</t>
   </si>
 </sst>
 </file>
@@ -1142,8 +1148,8 @@
   <sheetPr/>
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1342,19 +1348,25 @@
       </c>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:5">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C13" s="6">
         <v>9.29</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="8"/>
+      <c r="D13" s="5">
+        <v>10.4</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="6">
@@ -1365,7 +1377,7 @@
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:5">
       <c r="A15" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="12">
@@ -1376,7 +1388,7 @@
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:5">
       <c r="A16" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>6</v>
@@ -1388,12 +1400,12 @@
         <v>9.3</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:5">
       <c r="A17" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="12">
@@ -1404,7 +1416,7 @@
     </row>
     <row r="18" ht="20" customHeight="1" spans="1:5">
       <c r="A18" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>6</v>
@@ -1416,13 +1428,17 @@
         <v>10.4</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:5">
-      <c r="A19" s="5"/>
+      <c r="A19" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
+      <c r="C19" s="6">
+        <v>10.4</v>
+      </c>
       <c r="D19" s="5"/>
       <c r="E19" s="8"/>
     </row>

--- a/Doc/问题记录表.xlsx
+++ b/Doc/问题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22511" windowHeight="9275"/>
+    <workbookView windowWidth="22728" windowHeight="8075"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>问题描述</t>
   </si>
@@ -105,6 +105,9 @@
     <t>与下位机通信方式以及协议未确定</t>
   </si>
   <si>
+    <t>通信方式使用UDP，但是协议并未确定</t>
+  </si>
+  <si>
     <t>忘记密码弹窗未添加</t>
   </si>
   <si>
@@ -121,6 +124,9 @@
   </si>
   <si>
     <t>未添加用户训练参数保存数据表</t>
+  </si>
+  <si>
+    <t>将游戏内嵌到上位机界面中时出现游戏载入时界面位置偏移情况，这种情况往往都是第一次出现，目前怀疑可能是游戏分辨率发生变化变化出现的适应性不好导致的，具体什么原因有待讨论</t>
   </si>
 </sst>
 </file>
@@ -287,7 +293,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,6 +303,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,10 +628,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -628,16 +640,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -649,10 +661,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -673,28 +685,28 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -703,19 +715,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -727,38 +736,41 @@
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -795,8 +807,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1148,8 +1166,8 @@
   <sheetPr/>
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1213,14 +1231,18 @@
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:5">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C4" s="6">
         <v>9.28</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="5">
+        <v>10.4</v>
+      </c>
       <c r="E4" s="8"/>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:5">
@@ -1376,39 +1398,41 @@
       <c r="E14" s="8"/>
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:5">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="12">
+      <c r="C15" s="13">
         <v>9.3</v>
       </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="8"/>
+      <c r="E15" s="8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:5">
       <c r="A16" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="13">
         <v>9.3</v>
       </c>
       <c r="D16" s="5">
         <v>9.3</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:5">
       <c r="A17" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" s="5"/>
-      <c r="C17" s="12">
+      <c r="C17" s="13">
         <v>9.3</v>
       </c>
       <c r="D17" s="5"/>
@@ -1416,24 +1440,24 @@
     </row>
     <row r="18" ht="20" customHeight="1" spans="1:5">
       <c r="A18" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="13">
         <v>9.3</v>
       </c>
       <c r="D18" s="5">
         <v>10.4</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:5">
       <c r="A19" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="6">
@@ -1442,10 +1466,14 @@
       <c r="D19" s="5"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" ht="20" customHeight="1" spans="1:5">
-      <c r="A20" s="5"/>
+    <row r="20" ht="72" customHeight="1" spans="1:5">
+      <c r="A20" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
+      <c r="C20" s="6">
+        <v>10.9</v>
+      </c>
       <c r="D20" s="5"/>
       <c r="E20" s="8"/>
     </row>

--- a/Doc/问题记录表.xlsx
+++ b/Doc/问题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22728" windowHeight="8075"/>
+    <workbookView windowWidth="23040" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>问题描述</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>将游戏内嵌到上位机界面中时出现游戏载入时界面位置偏移情况，这种情况往往都是第一次出现，目前怀疑可能是游戏分辨率发生变化变化出现的适应性不好导致的，具体什么原因有待讨论</t>
+  </si>
+  <si>
+    <t>左手、右手、左脚、右脚的位置有时会出现负数以及超越360的值</t>
   </si>
 </sst>
 </file>
@@ -770,7 +773,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -812,9 +815,6 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1166,8 +1166,8 @@
   <sheetPr/>
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1467,7 +1467,7 @@
       <c r="E19" s="8"/>
     </row>
     <row r="20" ht="72" customHeight="1" spans="1:5">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="5"/>
@@ -1478,9 +1478,13 @@
       <c r="E20" s="8"/>
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:5">
-      <c r="A21" s="5"/>
+      <c r="A21" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
+      <c r="C21" s="6">
+        <v>10.2</v>
+      </c>
       <c r="D21" s="5"/>
       <c r="E21" s="8"/>
     </row>

--- a/Doc/问题记录表.xlsx
+++ b/Doc/问题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8820"/>
+    <workbookView windowWidth="25185" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
   <si>
     <t>问题描述</t>
   </si>
@@ -130,18 +130,55 @@
   </si>
   <si>
     <t>左手、右手、左脚、右脚的位置有时会出现负数以及超越360的值</t>
+  </si>
+  <si>
+    <t>剩余时间没有添加</t>
+  </si>
+  <si>
+    <t>阻力设置值没有显示</t>
+  </si>
+  <si>
+    <t>上下肢隐藏没有成功</t>
+  </si>
+  <si>
+    <t>速度、阻力、方向调整后没有更新到启动参数中</t>
+  </si>
+  <si>
+    <t>心跳检测灭有添加</t>
+  </si>
+  <si>
+    <t>转速会跳变</t>
+  </si>
+  <si>
+    <t>训练完成时，训练报告未添加弹出</t>
+  </si>
+  <si>
+    <t>痉挛报警未添加</t>
+  </si>
+  <si>
+    <t>游戏未添加</t>
+  </si>
+  <si>
+    <t>进入踏车界面痉挛选择自动开启</t>
+  </si>
+  <si>
+    <t>痉挛确认后未发送痉挛确认指令</t>
+  </si>
+  <si>
+    <t>三次痉挛退出训练未添加</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -296,7 +333,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,12 +343,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,10 +662,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -643,16 +674,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -664,52 +695,52 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -718,16 +749,19 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -739,41 +773,38 @@
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -810,7 +841,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1166,17 +1200,17 @@
   <sheetPr/>
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="79.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="10.4444444444444" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.4444444444444" customWidth="1"/>
-    <col min="5" max="5" width="43.8796296296296" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.4416666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.4416666666667" customWidth="1"/>
+    <col min="5" max="5" width="43.8833333333333" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1398,11 +1432,13 @@
       <c r="E14" s="8"/>
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:5">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="13">
+      <c r="B15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="12">
         <v>9.3</v>
       </c>
       <c r="D15" s="5"/>
@@ -1417,7 +1453,7 @@
       <c r="B16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="12">
         <v>9.3</v>
       </c>
       <c r="D16" s="5">
@@ -1432,7 +1468,7 @@
         <v>32</v>
       </c>
       <c r="B17" s="5"/>
-      <c r="C17" s="13">
+      <c r="C17" s="12">
         <v>9.3</v>
       </c>
       <c r="D17" s="5"/>
@@ -1445,7 +1481,7 @@
       <c r="B18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="12">
         <v>9.3</v>
       </c>
       <c r="D18" s="5">
@@ -1478,96 +1514,164 @@
       <c r="E20" s="8"/>
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:5">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="13" t="s">
         <v>37</v>
       </c>
       <c r="B21" s="5"/>
-      <c r="C21" s="6">
+      <c r="C21" s="14">
         <v>10.2</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="8"/>
     </row>
     <row r="22" ht="20" customHeight="1" spans="1:5">
-      <c r="A22" s="9"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="5"/>
+      <c r="A22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="6">
+        <v>10.21</v>
+      </c>
+      <c r="D22" s="5">
+        <v>10.21</v>
+      </c>
       <c r="E22" s="8"/>
     </row>
     <row r="23" ht="20" customHeight="1" spans="1:5">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="5"/>
+      <c r="A23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="6">
+        <v>10.21</v>
+      </c>
+      <c r="D23" s="5">
+        <v>10.21</v>
+      </c>
       <c r="E23" s="8"/>
     </row>
     <row r="24" ht="20" customHeight="1" spans="1:5">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="5"/>
+      <c r="A24" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="6">
+        <v>10.21</v>
+      </c>
+      <c r="D24" s="5">
+        <v>10.21</v>
+      </c>
       <c r="E24" s="8"/>
     </row>
     <row r="25" ht="20" customHeight="1" spans="1:5">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="5"/>
+      <c r="A25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="6">
+        <v>10.21</v>
+      </c>
+      <c r="D25" s="5">
+        <v>10.21</v>
+      </c>
       <c r="E25" s="8"/>
     </row>
     <row r="26" ht="20" customHeight="1" spans="1:5">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="5"/>
+      <c r="A26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="6">
+        <v>10.21</v>
+      </c>
+      <c r="D26" s="5">
+        <v>10.21</v>
+      </c>
       <c r="E26" s="8"/>
     </row>
     <row r="27" ht="20" customHeight="1" spans="1:5">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="5"/>
+      <c r="A27" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="6">
+        <v>10.21</v>
+      </c>
+      <c r="D27" s="5">
+        <v>10.21</v>
+      </c>
       <c r="E27" s="8"/>
     </row>
     <row r="28" ht="20" customHeight="1" spans="1:5">
-      <c r="A28" s="5"/>
+      <c r="A28" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
       <c r="D28" s="5"/>
       <c r="E28" s="8"/>
     </row>
     <row r="29" ht="20" customHeight="1" spans="1:5">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
+      <c r="A29" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C29" s="6"/>
       <c r="D29" s="5"/>
       <c r="E29" s="8"/>
     </row>
     <row r="30" ht="20" customHeight="1" spans="1:5">
-      <c r="A30" s="5"/>
+      <c r="A30" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="5"/>
       <c r="E30" s="8"/>
     </row>
     <row r="31" ht="20" customHeight="1" spans="1:5">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
+      <c r="A31" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C31" s="6"/>
       <c r="D31" s="5"/>
       <c r="E31" s="8"/>
     </row>
     <row r="32" ht="20" customHeight="1" spans="1:5">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
+      <c r="A32" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C32" s="6"/>
       <c r="D32" s="5"/>
       <c r="E32" s="8"/>
     </row>
     <row r="33" ht="20" customHeight="1" spans="1:5">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
+      <c r="A33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C33" s="6"/>
       <c r="D33" s="5"/>
       <c r="E33" s="8"/>
@@ -1637,7 +1741,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1654,7 +1758,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Doc/问题记录表.xlsx
+++ b/Doc/问题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25185" windowHeight="12525"/>
+    <workbookView windowWidth="23040" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
   <si>
     <t>问题描述</t>
   </si>
@@ -54,6 +54,9 @@
     <t>所有训练的参数以及FES参数未添加</t>
   </si>
   <si>
+    <t>训练参数已添加</t>
+  </si>
+  <si>
     <t>信号显示图标未添加数据驱动</t>
   </si>
   <si>
@@ -166,6 +169,27 @@
   </si>
   <si>
     <t>三次痉挛退出训练未添加</t>
+  </si>
+  <si>
+    <t>距离该怎么计算（使用圈数进行计算）</t>
+  </si>
+  <si>
+    <t>UI上显示的是左右平衡度，但是下位机上传的是下肢平衡度和上肢平衡度，默认为左侧平衡度，右侧为100-左侧</t>
+  </si>
+  <si>
+    <t>阻力该怎么对应（改成档位）</t>
+  </si>
+  <si>
+    <t>痉挛后方向问题未添加</t>
+  </si>
+  <si>
+    <t>上位机已添加</t>
+  </si>
+  <si>
+    <t>正向反向问题，需要添加一个绝对值</t>
+  </si>
+  <si>
+    <t>单主动、单被动模式未添加</t>
   </si>
 </sst>
 </file>
@@ -177,16 +201,22 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -333,7 +363,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,6 +378,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -533,7 +575,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -548,6 +590,32 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -662,10 +730,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -674,36 +742,33 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -713,98 +778,101 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -832,6 +900,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -841,14 +912,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1198,13 +1293,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="79.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
@@ -1280,10 +1375,12 @@
       <c r="E4" s="8"/>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C5" s="6">
         <v>9.28</v>
       </c>
@@ -1292,7 +1389,7 @@
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:5">
       <c r="A6" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>6</v>
@@ -1304,27 +1401,27 @@
         <v>9.3</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="32" customHeight="1" spans="1:5">
       <c r="A7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="10">
+        <v>15</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="11">
         <v>9.28</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="11" t="s">
-        <v>15</v>
+      <c r="D7" s="10"/>
+      <c r="E7" s="12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:5">
       <c r="A8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>6</v>
@@ -1336,12 +1433,12 @@
         <v>9.3</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:5">
       <c r="A9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>6</v>
@@ -1354,7 +1451,7 @@
     </row>
     <row r="10" ht="64" customHeight="1" spans="1:5">
       <c r="A10" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>6</v>
@@ -1366,12 +1463,12 @@
         <v>9.29</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="68" customHeight="1" spans="1:5">
       <c r="A11" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>6</v>
@@ -1383,12 +1480,12 @@
         <v>9.29</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:5">
       <c r="A12" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>6</v>
@@ -1400,12 +1497,12 @@
         <v>9.28</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:5">
       <c r="A13" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>6</v>
@@ -1417,12 +1514,12 @@
         <v>10.4</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="6">
@@ -1433,42 +1530,42 @@
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:5">
       <c r="A15" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="13">
         <v>9.3</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:5">
       <c r="A16" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="13">
         <v>9.3</v>
       </c>
       <c r="D16" s="5">
         <v>9.3</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:5">
       <c r="A17" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" s="5"/>
-      <c r="C17" s="12">
+      <c r="C17" s="13">
         <v>9.3</v>
       </c>
       <c r="D17" s="5"/>
@@ -1476,24 +1573,24 @@
     </row>
     <row r="18" ht="20" customHeight="1" spans="1:5">
       <c r="A18" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="13">
         <v>9.3</v>
       </c>
       <c r="D18" s="5">
         <v>10.4</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:5">
       <c r="A19" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="6">
@@ -1504,7 +1601,7 @@
     </row>
     <row r="20" ht="72" customHeight="1" spans="1:5">
       <c r="A20" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="6">
@@ -1514,8 +1611,8 @@
       <c r="E20" s="8"/>
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:5">
-      <c r="A21" s="13" t="s">
-        <v>37</v>
+      <c r="A21" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="14">
@@ -1526,7 +1623,7 @@
     </row>
     <row r="22" ht="20" customHeight="1" spans="1:5">
       <c r="A22" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>6</v>
@@ -1541,7 +1638,7 @@
     </row>
     <row r="23" ht="20" customHeight="1" spans="1:5">
       <c r="A23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>6</v>
@@ -1556,7 +1653,7 @@
     </row>
     <row r="24" ht="20" customHeight="1" spans="1:5">
       <c r="A24" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>6</v>
@@ -1571,7 +1668,7 @@
     </row>
     <row r="25" ht="20" customHeight="1" spans="1:5">
       <c r="A25" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>6</v>
@@ -1586,7 +1683,7 @@
     </row>
     <row r="26" ht="20" customHeight="1" spans="1:5">
       <c r="A26" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>6</v>
@@ -1601,7 +1698,7 @@
     </row>
     <row r="27" ht="20" customHeight="1" spans="1:5">
       <c r="A27" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>6</v>
@@ -1616,103 +1713,156 @@
     </row>
     <row r="28" ht="20" customHeight="1" spans="1:5">
       <c r="A28" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
+      <c r="C28" s="6">
+        <v>10.21</v>
+      </c>
       <c r="D28" s="5"/>
       <c r="E28" s="8"/>
     </row>
     <row r="29" ht="20" customHeight="1" spans="1:5">
       <c r="A29" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="5"/>
+      <c r="C29" s="6">
+        <v>10.21</v>
+      </c>
+      <c r="D29" s="6">
+        <v>10.21</v>
+      </c>
       <c r="E29" s="8"/>
     </row>
     <row r="30" ht="20" customHeight="1" spans="1:5">
       <c r="A30" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
+      <c r="C30" s="6">
+        <v>10.21</v>
+      </c>
       <c r="D30" s="5"/>
       <c r="E30" s="8"/>
     </row>
     <row r="31" ht="20" customHeight="1" spans="1:5">
       <c r="A31" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="5"/>
+      <c r="C31" s="6">
+        <v>10.21</v>
+      </c>
+      <c r="D31" s="6">
+        <v>10.21</v>
+      </c>
       <c r="E31" s="8"/>
     </row>
     <row r="32" ht="20" customHeight="1" spans="1:5">
       <c r="A32" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="5"/>
+      <c r="C32" s="6">
+        <v>10.21</v>
+      </c>
+      <c r="D32" s="6">
+        <v>10.21</v>
+      </c>
       <c r="E32" s="8"/>
     </row>
     <row r="33" ht="20" customHeight="1" spans="1:5">
       <c r="A33" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="5"/>
+      <c r="C33" s="6">
+        <v>10.21</v>
+      </c>
+      <c r="D33" s="6">
+        <v>10.21</v>
+      </c>
       <c r="E33" s="8"/>
     </row>
     <row r="34" ht="20" customHeight="1" spans="1:5">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="8"/>
-    </row>
-    <row r="35" ht="20" customHeight="1" spans="1:5">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="8"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="5"/>
+      <c r="A34" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="16"/>
+    </row>
+    <row r="35" ht="37" customHeight="1" spans="1:6">
+      <c r="A35" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="6">
+        <v>10.21</v>
+      </c>
+      <c r="D35" s="6">
+        <v>10.21</v>
+      </c>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+    </row>
+    <row r="36" ht="14.25" spans="1:5">
+      <c r="A36" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="6">
+        <v>10.21</v>
+      </c>
+      <c r="D36" s="6">
+        <v>10.21</v>
+      </c>
       <c r="E36" s="8"/>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="5"/>
+    <row r="37" ht="14.25" spans="1:5">
+      <c r="A37" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="15">
+        <v>10.24</v>
+      </c>
+      <c r="D37" s="15"/>
       <c r="E37" s="8"/>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="5"/>
+    <row r="38" ht="14.25" spans="1:5">
+      <c r="A38" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="15">
+        <v>10.24</v>
+      </c>
+      <c r="D38" s="22"/>
       <c r="E38" s="8"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="5"/>
+      <c r="A39" s="23" t="s">
+        <v>57</v>
+      </c>
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
       <c r="D39" s="5"/>

--- a/Doc/问题记录表.xlsx
+++ b/Doc/问题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300"/>
+    <workbookView windowWidth="30675" windowHeight="15885"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="72">
   <si>
     <t>问题描述</t>
   </si>
@@ -190,6 +190,48 @@
   </si>
   <si>
     <t>单主动、单被动模式未添加</t>
+  </si>
+  <si>
+    <t>报告日期显示不全</t>
+  </si>
+  <si>
+    <t>姓名和备注未对齐</t>
+  </si>
+  <si>
+    <t>训练模式显示不全</t>
+  </si>
+  <si>
+    <t>左右平衡没有添加限制和默认值</t>
+  </si>
+  <si>
+    <t>WiFi信号没有断网图片</t>
+  </si>
+  <si>
+    <t>combobox文字太小，未加粗显示</t>
+  </si>
+  <si>
+    <t>四肢和单肢切换时combobox位置未对齐</t>
+  </si>
+  <si>
+    <t>游戏未添加到踏车参数界面</t>
+  </si>
+  <si>
+    <t>游戏启动时显示一个绿色界面不协调（改成灰色背景并添加等待游戏启动文字）</t>
+  </si>
+  <si>
+    <t>fes界面下降、打开、关闭时间单位显示的是Hz</t>
+  </si>
+  <si>
+    <t>游戏界面有时候会显示不全</t>
+  </si>
+  <si>
+    <t>用户管理界面中单选框和全选框未对齐</t>
+  </si>
+  <si>
+    <t>单选框上放应添加选择汉字</t>
+  </si>
+  <si>
+    <t>左侧用户列表中当不满12时则显示12个人，总人数不超过100，行数根据人数进行添加</t>
   </si>
 </sst>
 </file>
@@ -363,7 +405,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,6 +427,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,10 +778,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -742,16 +790,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -763,10 +811,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -787,28 +835,28 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -817,19 +865,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -841,38 +886,41 @@
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -927,16 +975,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -944,6 +992,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1293,10 +1359,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1816,10 +1882,10 @@
         <v>10.21</v>
       </c>
       <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
+      <c r="F35" s="19"/>
     </row>
     <row r="36" ht="14.25" spans="1:5">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="20" t="s">
         <v>53</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -1869,11 +1935,184 @@
       <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="5"/>
+      <c r="A40" s="24" t="s">
+        <v>58</v>
+      </c>
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
       <c r="D40" s="5"/>
       <c r="E40" s="8"/>
+    </row>
+    <row r="41" ht="14.25" spans="1:5">
+      <c r="A41" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="26"/>
+      <c r="C41" s="27">
+        <v>10.26</v>
+      </c>
+      <c r="D41" s="26"/>
+      <c r="E41" s="28"/>
+    </row>
+    <row r="42" ht="14.25" spans="1:5">
+      <c r="A42" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="26"/>
+      <c r="C42" s="27">
+        <v>10.26</v>
+      </c>
+      <c r="D42" s="26"/>
+      <c r="E42" s="28"/>
+    </row>
+    <row r="43" ht="14.25" spans="1:5">
+      <c r="A43" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="26"/>
+      <c r="C43" s="27">
+        <v>10.26</v>
+      </c>
+      <c r="D43" s="26"/>
+      <c r="E43" s="28"/>
+    </row>
+    <row r="44" ht="14.25" spans="1:5">
+      <c r="A44" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="26"/>
+      <c r="C44" s="27">
+        <v>10.26</v>
+      </c>
+      <c r="D44" s="26"/>
+      <c r="E44" s="28"/>
+    </row>
+    <row r="45" ht="14.25" spans="1:5">
+      <c r="A45" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="26"/>
+      <c r="C45" s="27">
+        <v>10.26</v>
+      </c>
+      <c r="D45" s="26"/>
+      <c r="E45" s="28"/>
+    </row>
+    <row r="46" ht="14.25" spans="1:5">
+      <c r="A46" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="26"/>
+      <c r="C46" s="27">
+        <v>10.26</v>
+      </c>
+      <c r="D46" s="26"/>
+      <c r="E46" s="28"/>
+    </row>
+    <row r="47" ht="14.25" spans="1:5">
+      <c r="A47" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="26"/>
+      <c r="C47" s="27">
+        <v>10.26</v>
+      </c>
+      <c r="D47" s="26"/>
+      <c r="E47" s="28"/>
+    </row>
+    <row r="48" ht="14.25" spans="1:5">
+      <c r="A48" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="26"/>
+      <c r="C48" s="27">
+        <v>10.26</v>
+      </c>
+      <c r="D48" s="26"/>
+      <c r="E48" s="28"/>
+    </row>
+    <row r="49" ht="14.25" spans="1:5">
+      <c r="A49" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="26"/>
+      <c r="C49" s="27">
+        <v>10.26</v>
+      </c>
+      <c r="D49" s="26"/>
+      <c r="E49" s="28"/>
+    </row>
+    <row r="50" ht="14.25" spans="1:5">
+      <c r="A50" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="26"/>
+      <c r="C50" s="27">
+        <v>10.26</v>
+      </c>
+      <c r="D50" s="26"/>
+      <c r="E50" s="28"/>
+    </row>
+    <row r="51" ht="14.25" spans="1:5">
+      <c r="A51" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" s="26"/>
+      <c r="C51" s="27">
+        <v>10.26</v>
+      </c>
+      <c r="D51" s="26"/>
+      <c r="E51" s="28"/>
+    </row>
+    <row r="52" ht="14.25" spans="1:5">
+      <c r="A52" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="26"/>
+      <c r="C52" s="27">
+        <v>10.26</v>
+      </c>
+      <c r="D52" s="26"/>
+      <c r="E52" s="28"/>
+    </row>
+    <row r="53" ht="14.25" spans="1:5">
+      <c r="A53" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="26"/>
+      <c r="C53" s="27">
+        <v>10.26</v>
+      </c>
+      <c r="D53" s="26"/>
+      <c r="E53" s="28"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="26"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="28"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="26"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="28"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="26"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="28"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="26"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/问题记录表.xlsx
+++ b/Doc/问题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30675" windowHeight="15885"/>
+    <workbookView windowWidth="30675" windowHeight="15285"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -243,8 +243,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -920,7 +920,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -960,12 +960,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -975,9 +975,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -996,20 +993,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1361,8 +1346,8 @@
   <sheetPr/>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1881,11 +1866,11 @@
       <c r="D35" s="6">
         <v>10.21</v>
       </c>
-      <c r="E35" s="18"/>
-      <c r="F35" s="19"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="18"/>
     </row>
     <row r="36" ht="14.25" spans="1:5">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="19" t="s">
         <v>53</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -1900,7 +1885,7 @@
       <c r="E36" s="8"/>
     </row>
     <row r="37" ht="14.25" spans="1:5">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="19" t="s">
         <v>54</v>
       </c>
       <c r="B37" s="15" t="s">
@@ -1913,7 +1898,7 @@
       <c r="E37" s="8"/>
     </row>
     <row r="38" ht="14.25" spans="1:5">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="20" t="s">
         <v>56</v>
       </c>
       <c r="B38" s="15" t="s">
@@ -1922,11 +1907,11 @@
       <c r="C38" s="15">
         <v>10.24</v>
       </c>
-      <c r="D38" s="22"/>
+      <c r="D38" s="21"/>
       <c r="E38" s="8"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="22" t="s">
         <v>57</v>
       </c>
       <c r="B39" s="5"/>
@@ -1935,7 +1920,7 @@
       <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="23" t="s">
         <v>58</v>
       </c>
       <c r="B40" s="5"/>
@@ -1944,175 +1929,175 @@
       <c r="E40" s="8"/>
     </row>
     <row r="41" ht="14.25" spans="1:5">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="27">
+      <c r="B41" s="5"/>
+      <c r="C41" s="24">
         <v>10.26</v>
       </c>
-      <c r="D41" s="26"/>
-      <c r="E41" s="28"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="8"/>
     </row>
     <row r="42" ht="14.25" spans="1:5">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="26"/>
-      <c r="C42" s="27">
+      <c r="B42" s="5"/>
+      <c r="C42" s="24">
         <v>10.26</v>
       </c>
-      <c r="D42" s="26"/>
-      <c r="E42" s="28"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="8"/>
     </row>
     <row r="43" ht="14.25" spans="1:5">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="27">
+      <c r="B43" s="5"/>
+      <c r="C43" s="24">
         <v>10.26</v>
       </c>
-      <c r="D43" s="26"/>
-      <c r="E43" s="28"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="8"/>
     </row>
     <row r="44" ht="14.25" spans="1:5">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="27">
+      <c r="B44" s="5"/>
+      <c r="C44" s="24">
         <v>10.26</v>
       </c>
-      <c r="D44" s="26"/>
-      <c r="E44" s="28"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="8"/>
     </row>
     <row r="45" ht="14.25" spans="1:5">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="B45" s="26"/>
-      <c r="C45" s="27">
+      <c r="B45" s="5"/>
+      <c r="C45" s="24">
         <v>10.26</v>
       </c>
-      <c r="D45" s="26"/>
-      <c r="E45" s="28"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="8"/>
     </row>
     <row r="46" ht="14.25" spans="1:5">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B46" s="26"/>
-      <c r="C46" s="27">
+      <c r="B46" s="5"/>
+      <c r="C46" s="24">
         <v>10.26</v>
       </c>
-      <c r="D46" s="26"/>
-      <c r="E46" s="28"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="8"/>
     </row>
     <row r="47" ht="14.25" spans="1:5">
-      <c r="A47" s="26" t="s">
+      <c r="A47" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="27">
+      <c r="B47" s="5"/>
+      <c r="C47" s="24">
         <v>10.26</v>
       </c>
-      <c r="D47" s="26"/>
-      <c r="E47" s="28"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="8"/>
     </row>
     <row r="48" ht="14.25" spans="1:5">
-      <c r="A48" s="26" t="s">
+      <c r="A48" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="26"/>
-      <c r="C48" s="27">
+      <c r="B48" s="5"/>
+      <c r="C48" s="24">
         <v>10.26</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="28"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="8"/>
     </row>
     <row r="49" ht="14.25" spans="1:5">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="27">
+      <c r="B49" s="5"/>
+      <c r="C49" s="24">
         <v>10.26</v>
       </c>
-      <c r="D49" s="26"/>
-      <c r="E49" s="28"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="8"/>
     </row>
     <row r="50" ht="14.25" spans="1:5">
-      <c r="A50" s="26" t="s">
+      <c r="A50" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B50" s="26"/>
-      <c r="C50" s="27">
+      <c r="B50" s="5"/>
+      <c r="C50" s="24">
         <v>10.26</v>
       </c>
-      <c r="D50" s="26"/>
-      <c r="E50" s="28"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="8"/>
     </row>
     <row r="51" ht="14.25" spans="1:5">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B51" s="26"/>
-      <c r="C51" s="27">
+      <c r="B51" s="5"/>
+      <c r="C51" s="24">
         <v>10.26</v>
       </c>
-      <c r="D51" s="26"/>
-      <c r="E51" s="28"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="8"/>
     </row>
     <row r="52" ht="14.25" spans="1:5">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B52" s="26"/>
-      <c r="C52" s="27">
+      <c r="B52" s="5"/>
+      <c r="C52" s="24">
         <v>10.26</v>
       </c>
-      <c r="D52" s="26"/>
-      <c r="E52" s="28"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="8"/>
     </row>
     <row r="53" ht="14.25" spans="1:5">
-      <c r="A53" s="26" t="s">
+      <c r="A53" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B53" s="26"/>
-      <c r="C53" s="27">
+      <c r="B53" s="5"/>
+      <c r="C53" s="24">
         <v>10.26</v>
       </c>
-      <c r="D53" s="26"/>
-      <c r="E53" s="28"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="26"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="28"/>
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="26"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="28"/>
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="8"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="26"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="28"/>
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="26"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="28"/>
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/问题记录表.xlsx
+++ b/Doc/问题记录表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="76">
   <si>
     <t>问题描述</t>
   </si>
@@ -232,6 +232,18 @@
   </si>
   <si>
     <t>左侧用户列表中当不满12时则显示12个人，总人数不超过100，行数根据人数进行添加</t>
+  </si>
+  <si>
+    <t>痉挛后方向问题解释（找王鑫）</t>
+  </si>
+  <si>
+    <t>被动模式下有时会出现通信中断现象，上位机数据不刷新，下位机收不到上位机数据</t>
+  </si>
+  <si>
+    <t>报告中的训练总时间需要改一下，不要写设定时间，需要根据实际进行更改</t>
+  </si>
+  <si>
+    <t>痉挛保护带有声音提示</t>
   </si>
 </sst>
 </file>
@@ -243,8 +255,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -960,10 +972,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1346,8 +1358,8 @@
   <sheetPr/>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2072,28 +2084,36 @@
       <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="5"/>
+      <c r="A54" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
       <c r="D54" s="5"/>
       <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="5"/>
+      <c r="A55" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
       <c r="D55" s="5"/>
       <c r="E55" s="8"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="5"/>
+      <c r="A56" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
       <c r="D56" s="5"/>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="5"/>
+      <c r="A57" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
       <c r="D57" s="5"/>

--- a/Doc/问题记录表.xlsx
+++ b/Doc/问题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30675" windowHeight="15285"/>
+    <workbookView windowHeight="18060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="80">
   <si>
     <t>问题描述</t>
   </si>
@@ -244,6 +244,18 @@
   </si>
   <si>
     <t>痉挛保护带有声音提示</t>
+  </si>
+  <si>
+    <t>主动训练中，在游戏界面中阻力可以调到30，实际最大为20挡</t>
+  </si>
+  <si>
+    <t>游戏训练界面中双击增加范围，不要和开窗效果重合</t>
+  </si>
+  <si>
+    <t>游戏训练界面中按钮需支持连续调节</t>
+  </si>
+  <si>
+    <t>被动训练中的预设值不能超30，在点击开始按钮之前如果大于30则给出提示</t>
   </si>
 </sst>
 </file>
@@ -932,7 +944,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1006,6 +1018,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1356,19 +1371,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="79.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="10.4416666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.4416666666667" customWidth="1"/>
-    <col min="5" max="5" width="43.8833333333333" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.4444444444444" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="43.8796296296296" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1881,7 +1896,7 @@
       <c r="E35" s="15"/>
       <c r="F35" s="18"/>
     </row>
-    <row r="36" ht="14.25" spans="1:5">
+    <row r="36" ht="15.6" spans="1:5">
       <c r="A36" s="19" t="s">
         <v>53</v>
       </c>
@@ -1896,7 +1911,7 @@
       </c>
       <c r="E36" s="8"/>
     </row>
-    <row r="37" ht="14.25" spans="1:5">
+    <row r="37" ht="15.6" spans="1:5">
       <c r="A37" s="19" t="s">
         <v>54</v>
       </c>
@@ -1909,7 +1924,7 @@
       <c r="D37" s="15"/>
       <c r="E37" s="8"/>
     </row>
-    <row r="38" ht="14.25" spans="1:5">
+    <row r="38" ht="15.6" spans="1:5">
       <c r="A38" s="20" t="s">
         <v>56</v>
       </c>
@@ -1940,7 +1955,7 @@
       <c r="D40" s="5"/>
       <c r="E40" s="8"/>
     </row>
-    <row r="41" ht="14.25" spans="1:5">
+    <row r="41" ht="15.6" spans="1:5">
       <c r="A41" s="23" t="s">
         <v>59</v>
       </c>
@@ -1951,7 +1966,7 @@
       <c r="D41" s="5"/>
       <c r="E41" s="8"/>
     </row>
-    <row r="42" ht="14.25" spans="1:5">
+    <row r="42" ht="15.6" spans="1:5">
       <c r="A42" s="23" t="s">
         <v>60</v>
       </c>
@@ -1962,7 +1977,7 @@
       <c r="D42" s="5"/>
       <c r="E42" s="8"/>
     </row>
-    <row r="43" ht="14.25" spans="1:5">
+    <row r="43" ht="15.6" spans="1:5">
       <c r="A43" s="23" t="s">
         <v>61</v>
       </c>
@@ -1973,7 +1988,7 @@
       <c r="D43" s="5"/>
       <c r="E43" s="8"/>
     </row>
-    <row r="44" ht="14.25" spans="1:5">
+    <row r="44" ht="15.6" spans="1:5">
       <c r="A44" s="5" t="s">
         <v>62</v>
       </c>
@@ -1984,7 +1999,7 @@
       <c r="D44" s="5"/>
       <c r="E44" s="8"/>
     </row>
-    <row r="45" ht="14.25" spans="1:5">
+    <row r="45" ht="15.6" spans="1:5">
       <c r="A45" s="23" t="s">
         <v>63</v>
       </c>
@@ -1995,7 +2010,7 @@
       <c r="D45" s="5"/>
       <c r="E45" s="8"/>
     </row>
-    <row r="46" ht="14.25" spans="1:5">
+    <row r="46" ht="15.6" spans="1:5">
       <c r="A46" s="23" t="s">
         <v>64</v>
       </c>
@@ -2006,7 +2021,7 @@
       <c r="D46" s="5"/>
       <c r="E46" s="8"/>
     </row>
-    <row r="47" ht="14.25" spans="1:5">
+    <row r="47" ht="15.6" spans="1:5">
       <c r="A47" s="5" t="s">
         <v>65</v>
       </c>
@@ -2017,7 +2032,7 @@
       <c r="D47" s="5"/>
       <c r="E47" s="8"/>
     </row>
-    <row r="48" ht="14.25" spans="1:5">
+    <row r="48" ht="15.6" spans="1:5">
       <c r="A48" s="23" t="s">
         <v>66</v>
       </c>
@@ -2028,7 +2043,7 @@
       <c r="D48" s="5"/>
       <c r="E48" s="8"/>
     </row>
-    <row r="49" ht="14.25" spans="1:5">
+    <row r="49" ht="15.6" spans="1:5">
       <c r="A49" s="23" t="s">
         <v>67</v>
       </c>
@@ -2039,7 +2054,7 @@
       <c r="D49" s="5"/>
       <c r="E49" s="8"/>
     </row>
-    <row r="50" ht="14.25" spans="1:5">
+    <row r="50" ht="15.6" spans="1:5">
       <c r="A50" s="5" t="s">
         <v>68</v>
       </c>
@@ -2050,7 +2065,7 @@
       <c r="D50" s="5"/>
       <c r="E50" s="8"/>
     </row>
-    <row r="51" ht="14.25" spans="1:5">
+    <row r="51" ht="15.6" spans="1:5">
       <c r="A51" s="23" t="s">
         <v>69</v>
       </c>
@@ -2061,7 +2076,7 @@
       <c r="D51" s="5"/>
       <c r="E51" s="8"/>
     </row>
-    <row r="52" ht="14.25" spans="1:5">
+    <row r="52" ht="15.6" spans="1:5">
       <c r="A52" s="23" t="s">
         <v>70</v>
       </c>
@@ -2072,7 +2087,7 @@
       <c r="D52" s="5"/>
       <c r="E52" s="8"/>
     </row>
-    <row r="53" ht="14.25" spans="1:5">
+    <row r="53" ht="15.6" spans="1:5">
       <c r="A53" s="5" t="s">
         <v>71</v>
       </c>
@@ -2111,13 +2126,33 @@
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="23" t="s">
         <v>75</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
       <c r="D57" s="5"/>
       <c r="E57" s="8"/>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2135,7 +2170,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2152,7 +2187,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Doc/问题记录表.xlsx
+++ b/Doc/问题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18060"/>
+    <workbookView windowWidth="23040" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="84">
   <si>
     <t>问题描述</t>
   </si>
@@ -256,6 +256,18 @@
   </si>
   <si>
     <t>被动训练中的预设值不能超30，在点击开始按钮之前如果大于30则给出提示</t>
+  </si>
+  <si>
+    <t>训练报告中阻力部分未添加数据</t>
+  </si>
+  <si>
+    <t>主动训练中速度不可调节（速度按钮失能）</t>
+  </si>
+  <si>
+    <t>被动训练中阻力调节应不可用</t>
+  </si>
+  <si>
+    <t>软件可以开启多次</t>
   </si>
 </sst>
 </file>
@@ -944,7 +956,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -986,6 +998,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1371,19 +1386,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="79.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="10.4444444444444" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.4444444444444" customWidth="1"/>
-    <col min="5" max="5" width="43.8796296296296" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.4416666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.4416666666667" customWidth="1"/>
+    <col min="5" max="5" width="43.8833333333333" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1596,7 +1611,7 @@
       </c>
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:5">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="5"/>
@@ -1678,7 +1693,7 @@
       <c r="E19" s="8"/>
     </row>
     <row r="20" ht="72" customHeight="1" spans="1:5">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="5"/>
@@ -1689,11 +1704,11 @@
       <c r="E20" s="8"/>
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:5">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="5"/>
-      <c r="C21" s="14">
+      <c r="C21" s="15">
         <v>10.2</v>
       </c>
       <c r="D21" s="5"/>
@@ -1790,7 +1805,7 @@
       <c r="E27" s="8"/>
     </row>
     <row r="28" ht="20" customHeight="1" spans="1:5">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B28" s="5"/>
@@ -1872,16 +1887,16 @@
       <c r="E33" s="8"/>
     </row>
     <row r="34" ht="20" customHeight="1" spans="1:5">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="17"/>
     </row>
     <row r="35" ht="37" customHeight="1" spans="1:6">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="18" t="s">
         <v>52</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -1893,11 +1908,11 @@
       <c r="D35" s="6">
         <v>10.21</v>
       </c>
-      <c r="E35" s="15"/>
-      <c r="F35" s="18"/>
-    </row>
-    <row r="36" ht="15.6" spans="1:5">
-      <c r="A36" s="19" t="s">
+      <c r="E35" s="16"/>
+      <c r="F35" s="19"/>
+    </row>
+    <row r="36" ht="14.25" spans="1:5">
+      <c r="A36" s="20" t="s">
         <v>53</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -1911,34 +1926,34 @@
       </c>
       <c r="E36" s="8"/>
     </row>
-    <row r="37" ht="15.6" spans="1:5">
-      <c r="A37" s="19" t="s">
+    <row r="37" ht="14.25" spans="1:5">
+      <c r="A37" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="16">
         <v>10.24</v>
       </c>
-      <c r="D37" s="15"/>
+      <c r="D37" s="16"/>
       <c r="E37" s="8"/>
     </row>
-    <row r="38" ht="15.6" spans="1:5">
-      <c r="A38" s="20" t="s">
+    <row r="38" ht="14.25" spans="1:5">
+      <c r="A38" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="16">
         <v>10.24</v>
       </c>
-      <c r="D38" s="21"/>
+      <c r="D38" s="22"/>
       <c r="E38" s="8"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="23" t="s">
         <v>57</v>
       </c>
       <c r="B39" s="5"/>
@@ -1947,7 +1962,7 @@
       <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B40" s="5"/>
@@ -1955,144 +1970,144 @@
       <c r="D40" s="5"/>
       <c r="E40" s="8"/>
     </row>
-    <row r="41" ht="15.6" spans="1:5">
-      <c r="A41" s="23" t="s">
+    <row r="41" ht="14.25" spans="1:5">
+      <c r="A41" s="24" t="s">
         <v>59</v>
       </c>
       <c r="B41" s="5"/>
-      <c r="C41" s="24">
+      <c r="C41" s="25">
         <v>10.26</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="8"/>
     </row>
-    <row r="42" ht="15.6" spans="1:5">
-      <c r="A42" s="23" t="s">
+    <row r="42" ht="14.25" spans="1:5">
+      <c r="A42" s="24" t="s">
         <v>60</v>
       </c>
       <c r="B42" s="5"/>
-      <c r="C42" s="24">
+      <c r="C42" s="25">
         <v>10.26</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="8"/>
     </row>
-    <row r="43" ht="15.6" spans="1:5">
-      <c r="A43" s="23" t="s">
+    <row r="43" ht="14.25" spans="1:5">
+      <c r="A43" s="24" t="s">
         <v>61</v>
       </c>
       <c r="B43" s="5"/>
-      <c r="C43" s="24">
+      <c r="C43" s="25">
         <v>10.26</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="8"/>
     </row>
-    <row r="44" ht="15.6" spans="1:5">
+    <row r="44" ht="14.25" spans="1:5">
       <c r="A44" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B44" s="5"/>
-      <c r="C44" s="24">
+      <c r="C44" s="25">
         <v>10.26</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="8"/>
     </row>
-    <row r="45" ht="15.6" spans="1:5">
-      <c r="A45" s="23" t="s">
+    <row r="45" ht="14.25" spans="1:5">
+      <c r="A45" s="24" t="s">
         <v>63</v>
       </c>
       <c r="B45" s="5"/>
-      <c r="C45" s="24">
+      <c r="C45" s="25">
         <v>10.26</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="8"/>
     </row>
-    <row r="46" ht="15.6" spans="1:5">
-      <c r="A46" s="23" t="s">
+    <row r="46" ht="14.25" spans="1:5">
+      <c r="A46" s="24" t="s">
         <v>64</v>
       </c>
       <c r="B46" s="5"/>
-      <c r="C46" s="24">
+      <c r="C46" s="25">
         <v>10.26</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="8"/>
     </row>
-    <row r="47" ht="15.6" spans="1:5">
+    <row r="47" ht="14.25" spans="1:5">
       <c r="A47" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B47" s="5"/>
-      <c r="C47" s="24">
+      <c r="C47" s="25">
         <v>10.26</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="8"/>
     </row>
-    <row r="48" ht="15.6" spans="1:5">
-      <c r="A48" s="23" t="s">
+    <row r="48" ht="14.25" spans="1:5">
+      <c r="A48" s="24" t="s">
         <v>66</v>
       </c>
       <c r="B48" s="5"/>
-      <c r="C48" s="24">
+      <c r="C48" s="25">
         <v>10.26</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="8"/>
     </row>
-    <row r="49" ht="15.6" spans="1:5">
-      <c r="A49" s="23" t="s">
+    <row r="49" ht="14.25" spans="1:5">
+      <c r="A49" s="24" t="s">
         <v>67</v>
       </c>
       <c r="B49" s="5"/>
-      <c r="C49" s="24">
+      <c r="C49" s="25">
         <v>10.26</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="8"/>
     </row>
-    <row r="50" ht="15.6" spans="1:5">
-      <c r="A50" s="5" t="s">
+    <row r="50" ht="14.25" spans="1:5">
+      <c r="A50" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B50" s="5"/>
-      <c r="C50" s="24">
+      <c r="C50" s="25">
         <v>10.26</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="8"/>
     </row>
-    <row r="51" ht="15.6" spans="1:5">
-      <c r="A51" s="23" t="s">
+    <row r="51" ht="14.25" spans="1:5">
+      <c r="A51" s="24" t="s">
         <v>69</v>
       </c>
       <c r="B51" s="5"/>
-      <c r="C51" s="24">
+      <c r="C51" s="25">
         <v>10.26</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="8"/>
     </row>
-    <row r="52" ht="15.6" spans="1:5">
-      <c r="A52" s="23" t="s">
+    <row r="52" ht="14.25" spans="1:5">
+      <c r="A52" s="24" t="s">
         <v>70</v>
       </c>
       <c r="B52" s="5"/>
-      <c r="C52" s="24">
+      <c r="C52" s="25">
         <v>10.26</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="8"/>
     </row>
-    <row r="53" ht="15.6" spans="1:5">
+    <row r="53" ht="14.25" spans="1:5">
       <c r="A53" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B53" s="5"/>
-      <c r="C53" s="24">
+      <c r="C53" s="25">
         <v>10.26</v>
       </c>
       <c r="D53" s="5"/>
@@ -2126,7 +2141,7 @@
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="24" t="s">
         <v>75</v>
       </c>
       <c r="B57" s="5"/>
@@ -2135,23 +2150,43 @@
       <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="26" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="26" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="26" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" t="s">
+      <c r="A61" s="26" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2170,7 +2205,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2187,7 +2222,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Doc/问题记录表.xlsx
+++ b/Doc/问题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300"/>
+    <workbookView windowWidth="23040" windowHeight="8700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="85">
   <si>
     <t>问题描述</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>软件可以开启多次</t>
+  </si>
+  <si>
+    <t>在FES参数界面中，通道参数设置有问题，当通道中有肌肉时，则显示当前肌肉，如果没有再默认填充</t>
   </si>
 </sst>
 </file>
@@ -279,8 +282,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -956,7 +959,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -996,15 +999,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1035,8 +1038,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1386,10 +1398,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2149,45 +2161,144 @@
       <c r="D57" s="5"/>
       <c r="E57" s="8"/>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:5">
       <c r="A58" s="26" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="B58" s="27"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="29"/>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="26" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="B59" s="27"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="29"/>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="26" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="B60" s="27"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="29"/>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="26" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
+      <c r="B61" s="27"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="29"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="26" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
+      <c r="B62" s="27"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="29"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="26" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
+      <c r="B63" s="27"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="29"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="26" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
+      <c r="B64" s="27"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="29"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="26" t="s">
         <v>83</v>
       </c>
+      <c r="B65" s="27"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="29"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B66" s="27"/>
+      <c r="C66" s="28">
+        <v>11.7</v>
+      </c>
+      <c r="D66" s="27"/>
+      <c r="E66" s="29"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="27"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="29"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="27"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="29"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="27"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="29"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="27"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="29"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="27"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="29"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="27"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="29"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="27"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="29"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="27"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/问题记录表.xlsx
+++ b/Doc/问题记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8700"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -147,7 +147,7 @@
     <t>速度、阻力、方向调整后没有更新到启动参数中</t>
   </si>
   <si>
-    <t>心跳检测灭有添加</t>
+    <t>心跳检测没有添加</t>
   </si>
   <si>
     <t>转速会跳变</t>
@@ -282,8 +282,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -444,7 +444,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -460,12 +460,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -817,10 +811,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -829,16 +823,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -850,52 +844,52 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -904,16 +898,19 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -925,41 +922,38 @@
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -999,15 +993,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1029,26 +1023,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1400,8 +1379,8 @@
   <sheetPr/>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1965,7 +1944,7 @@
       <c r="E38" s="8"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="7" t="s">
         <v>57</v>
       </c>
       <c r="B39" s="5"/>
@@ -1974,7 +1953,7 @@
       <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="7" t="s">
         <v>58</v>
       </c>
       <c r="B40" s="5"/>
@@ -1983,33 +1962,33 @@
       <c r="E40" s="8"/>
     </row>
     <row r="41" ht="14.25" spans="1:5">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="7" t="s">
         <v>59</v>
       </c>
       <c r="B41" s="5"/>
-      <c r="C41" s="25">
+      <c r="C41" s="23">
         <v>10.26</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="8"/>
     </row>
     <row r="42" ht="14.25" spans="1:5">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B42" s="5"/>
-      <c r="C42" s="25">
+      <c r="C42" s="23">
         <v>10.26</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="8"/>
     </row>
     <row r="43" ht="14.25" spans="1:5">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="7" t="s">
         <v>61</v>
       </c>
       <c r="B43" s="5"/>
-      <c r="C43" s="25">
+      <c r="C43" s="23">
         <v>10.26</v>
       </c>
       <c r="D43" s="5"/>
@@ -2020,7 +1999,7 @@
         <v>62</v>
       </c>
       <c r="B44" s="5"/>
-      <c r="C44" s="25">
+      <c r="C44" s="23">
         <v>10.26</v>
       </c>
       <c r="D44" s="5"/>
@@ -2031,7 +2010,7 @@
         <v>63</v>
       </c>
       <c r="B45" s="5"/>
-      <c r="C45" s="25">
+      <c r="C45" s="23">
         <v>10.26</v>
       </c>
       <c r="D45" s="5"/>
@@ -2042,18 +2021,18 @@
         <v>64</v>
       </c>
       <c r="B46" s="5"/>
-      <c r="C46" s="25">
+      <c r="C46" s="23">
         <v>10.26</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="8"/>
     </row>
     <row r="47" ht="14.25" spans="1:5">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B47" s="5"/>
-      <c r="C47" s="25">
+      <c r="C47" s="23">
         <v>10.26</v>
       </c>
       <c r="D47" s="5"/>
@@ -2064,7 +2043,7 @@
         <v>66</v>
       </c>
       <c r="B48" s="5"/>
-      <c r="C48" s="25">
+      <c r="C48" s="23">
         <v>10.26</v>
       </c>
       <c r="D48" s="5"/>
@@ -2075,7 +2054,7 @@
         <v>67</v>
       </c>
       <c r="B49" s="5"/>
-      <c r="C49" s="25">
+      <c r="C49" s="23">
         <v>10.26</v>
       </c>
       <c r="D49" s="5"/>
@@ -2086,7 +2065,7 @@
         <v>68</v>
       </c>
       <c r="B50" s="5"/>
-      <c r="C50" s="25">
+      <c r="C50" s="23">
         <v>10.26</v>
       </c>
       <c r="D50" s="5"/>
@@ -2097,7 +2076,7 @@
         <v>69</v>
       </c>
       <c r="B51" s="5"/>
-      <c r="C51" s="25">
+      <c r="C51" s="23">
         <v>10.26</v>
       </c>
       <c r="D51" s="5"/>
@@ -2108,7 +2087,7 @@
         <v>70</v>
       </c>
       <c r="B52" s="5"/>
-      <c r="C52" s="25">
+      <c r="C52" s="23">
         <v>10.26</v>
       </c>
       <c r="D52" s="5"/>
@@ -2119,7 +2098,7 @@
         <v>71</v>
       </c>
       <c r="B53" s="5"/>
-      <c r="C53" s="25">
+      <c r="C53" s="23">
         <v>10.26</v>
       </c>
       <c r="D53" s="5"/>
@@ -2162,143 +2141,143 @@
       <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="26" t="s">
+      <c r="A58" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B58" s="27"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="29"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="26" t="s">
+      <c r="A59" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="B59" s="27"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="29"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="26" t="s">
+      <c r="A60" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B60" s="27"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="29"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="26" t="s">
+      <c r="A61" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B61" s="27"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="29"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="26" t="s">
+      <c r="A62" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="B62" s="27"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="29"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="8"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="26" t="s">
+      <c r="A63" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="B63" s="27"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="29"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="26" t="s">
+      <c r="A64" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B64" s="27"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="29"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="8"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="26" t="s">
+      <c r="A65" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="B65" s="27"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="29"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="27" t="s">
+      <c r="A66" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B66" s="27"/>
-      <c r="C66" s="28">
+      <c r="B66" s="5"/>
+      <c r="C66" s="6">
         <v>11.7</v>
       </c>
-      <c r="D66" s="27"/>
-      <c r="E66" s="29"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="27"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="29"/>
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="27"/>
-      <c r="B68" s="27"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="29"/>
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="8"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="27"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="29"/>
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="8"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="27"/>
-      <c r="B70" s="27"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="29"/>
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="8"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="27"/>
-      <c r="B71" s="27"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="29"/>
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="8"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="27"/>
-      <c r="B72" s="27"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="29"/>
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="8"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="27"/>
-      <c r="B73" s="27"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="29"/>
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="8"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="27"/>
-      <c r="B74" s="27"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="29"/>
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
